--- a/Volunteers_Hist.xlsx
+++ b/Volunteers_Hist.xlsx
@@ -17,18 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,27 +37,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -75,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -483,7 +460,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -509,8 +486,10 @@
           <t>John David</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2018</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -519,8 +498,10 @@
           <t>John David</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2019</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -529,8 +510,10 @@
           <t>John David</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2020</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -539,8 +522,10 @@
           <t>John David</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2021</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -549,8 +534,10 @@
           <t>John David</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2022</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -559,8 +546,10 @@
           <t>John David</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2023</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -569,8 +558,10 @@
           <t>Christy Ivanga</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2018</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -579,8 +570,10 @@
           <t>Christy Ivanga</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2019</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -589,8 +582,10 @@
           <t>Christy Ivanga</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2020</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -599,8 +594,10 @@
           <t>James Roger</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2018</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -609,8 +606,10 @@
           <t>James Roger</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2019</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -619,8 +618,10 @@
           <t>James Roger</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2020</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -629,8 +630,10 @@
           <t>Michelle Amy</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2018</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -639,8 +642,10 @@
           <t>Elon Husk</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2019</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -649,8 +654,10 @@
           <t>Elon Husk</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2020</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -659,8 +666,10 @@
           <t>Sam Walton</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2018</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -669,8 +678,10 @@
           <t>Ryan Post</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2018</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -679,8 +690,10 @@
           <t>Daniel Rich</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2018</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -689,8 +702,10 @@
           <t>Daniel Rich</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2019</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -699,8 +714,10 @@
           <t>Daniel Rich</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2020</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -709,8 +726,10 @@
           <t>Joel Bouncer</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2018</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -719,8 +738,10 @@
           <t>Joel Bouncer</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2019</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -729,8 +750,10 @@
           <t>Joel Bouncer</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2020</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -739,8 +762,10 @@
           <t>Joel Bouncer</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2021</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -754,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,14 +788,79 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Year</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2011-2012</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2012-2013</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2013-2014</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2014-2015</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2015-2016</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
         </is>
       </c>
     </row>
@@ -782,7 +872,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[2018, 2019, 2020]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -794,7 +949,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2018, 2019, 2020]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -806,7 +1026,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[2019, 2020]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -818,7 +1103,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2018, 2019, 2020]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -830,7 +1180,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[2018, 2019, 2020, 2021]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -842,7 +1257,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[2018, 2019, 2020, 2021, 2022, 2023]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -854,7 +1334,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[2018]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -866,7 +1411,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[2018]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -878,7 +1488,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[2018]</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
